--- a/data/Subset 1/Video Mosaic Grade 4 Division of Fractions 1.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Division of Fractions 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,13 +652,21 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[She puts a  white rod below the red and orange train.]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>And if you think you know, can you build me  the model to show me so that you can  explain it to us?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8 - Press for Accuracy</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -671,12 +679,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>And if you think you know, can you build me  the model to show me so that you can  explain it to us?</t>
+          <t>Remember the red and  orange have the number name 1 and I want  to know what number name you might give  to the white that would make sense.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -696,17 +704,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Remember the red and  orange have the number name 1 and I want  to know what number name you might give  to the white that would make sense.</t>
+          <t>I'm hearing  some interesting things, and I don't think we  need to dwell on this one.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -721,12 +729,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I'm hearing  some interesting things, and I don't think we  need to dwell on this one.</t>
+          <t>I think a lot of  people really are anxious to tell me how this  works.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -746,17 +754,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I think a lot of  people really are anxious to tell me how this  works.</t>
+          <t>Is there somebody who feels they  can explain how this works?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -771,17 +779,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Is there somebody who feels they  can explain how this works?</t>
+          <t>They built a  model and they can explain how this works  and what number name they gave for white.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -796,12 +804,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>They built a  model and they can explain how this works  and what number name they gave for white.</t>
+          <t>Ok let's see.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -821,17 +829,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ok let's see.</t>
+          <t>Danielle.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -846,49 +854,53 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Danielle.</t>
+          <t>I would call it 1/12.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>7 - Context</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>02:10:00</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>I would call it 1/12.</t>
+          <t>She would call it 1/12 she says.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7 - Context</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>5 - Revoicing</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,17 +916,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>She would call it 1/12 she says.</t>
+          <t>How many  people agree with that?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5 - Revoicing</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -933,17 +945,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>How many  people agree with that?</t>
+          <t>This looks pretty  encouraging.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -962,12 +974,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>This looks pretty  encouraging.</t>
+          <t>You can put your hands down.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -991,17 +1003,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>You can put your hands down.</t>
+          <t>1/12 you're saying, does anyone disagree  first of all with 1/12?</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1020,17 +1032,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1/12 you're saying, does anyone disagree  first of all with 1/12?</t>
+          <t>No, nobody does.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1049,12 +1061,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No, nobody does.</t>
+          <t>Maybe I should have asked that first.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1078,17 +1090,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Maybe I should have asked that first.</t>
+          <t>Ok, Danielle, why do you think 1/12?</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>9 - Press for Reasoning</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1097,30 +1109,26 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>02:10:00</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ok, Danielle, why do you think 1/12?</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9 - Press for Reasoning</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Because the red and the orange that's the  whole and 12 white ones make up the  whole.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5 - Providing Evidence / Explaining Reasoning</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1128,24 +1136,24 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Because the red and the orange that's the  whole and 12 white ones make up the  whole.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>5 - Providing Evidence / Explaining Reasoning</t>
-        </is>
-      </c>
+          <t>Ok.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1157,17 +1165,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>So if we call red and orange 1, we're  calling it the number name 1, you're saying  that it takes 12 of those little white ones to  equal up to the length of the orange and the  red?</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1182,12 +1190,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>So if we call red and orange 1, we're  calling it the number name 1, you're saying  that it takes 12 of those little white ones to  equal up to the length of the orange and the  red?</t>
+          <t>And so you would give  this the name 1/12?</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1207,17 +1215,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>And so you would give  this the name 1/12?</t>
+          <t>Do  you agree with that?</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1232,12 +1240,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Do  you agree with that?</t>
+          <t>Does that seem  reasonable?</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1257,17 +1265,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Does that seem  reasonable?</t>
+          <t>Ok well now what we can do is  maybe we can answer a question or two  about this train.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1282,17 +1290,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ok well now what we can do is  maybe we can answer a question or two  about this train.</t>
+          <t>The first is,  “How many whites are in a red orange  train?”  and the second question is, “How  many _______  are in ________?”</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1302,22 +1310,20 @@
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>6</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The first is,  “How many whites are in a red orange  train?”  and the second question is, “How  many _______  are in ________?”</t>
+          <t>Now this is  what we've been answering right?</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1327,20 +1333,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Now this is  what we've been answering right?</t>
+          <t>How  many white are in the red and orange train?</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1355,17 +1363,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>How  many white are in the red and orange train?</t>
+          <t>Can we now replace these color names, for  the train and for the white, with number  names in that sentence?</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1380,12 +1388,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Can we now replace these color names, for  the train and for the white, with number  names in that sentence?</t>
+          <t>Can we change the  color names of white and the train with red  and orange to number names at this point  now?</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1405,12 +1413,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Can we change the  color names of white and the train with red  and orange to number names at this point  now?</t>
+          <t>Can we rewrite this with numbers in  that sentence?</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1430,17 +1438,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Can we rewrite this with numbers in  that sentence?</t>
+          <t>A couple people are saying  that they can.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1455,17 +1463,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A couple people are saying  that they can.</t>
+          <t>I would like you all to think  about for a minute, maybe even to discuss it  with your partner what you might call these.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1476,24 +1484,24 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>I would like you all to think  about for a minute, maybe even to discuss it  with your partner what you might call these.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>has told us part of this; you just  have to put it into the sentence now.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1510,7 +1518,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>has told us part of this; you just  have to put it into the sentence now.</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1526,24 +1534,24 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Read me, read me what it says there.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1551,24 +1559,24 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Read me, read me what it says there.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>How many whites are in a red and orange  train?</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1576,24 +1584,24 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>How many whites are in a red and orange  train?</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Well, you said…</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1601,24 +1609,24 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Well, you said…</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Uh, twelve</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1626,24 +1634,24 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Uh, twelve</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>Ok, twelve, go ahead.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1655,17 +1663,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ok, twelve, go ahead.</t>
+          <t>How many</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1676,24 +1684,24 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>How many</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>How many blank are in</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1701,24 +1709,24 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>How many blank are in</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>What would you call one of these [white  rods]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8 - Press for Accuracy</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1726,24 +1734,24 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>What would you call one of these [white  rods]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>A twelfth</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1751,24 +1759,24 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A twelfth</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>Ok.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1780,17 +1788,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>So how many blanks are in… You said  how many twelfths are in</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1801,24 +1809,28 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>So how many blanks are in… You said  how many twelfths are in</t>
+          <t>A whole?</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>7 - Context</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1826,28 +1838,24 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A whole?</t>
+          <t>Are in one, right, you have it!</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7 - Context</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>5 - Revoicing</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1855,24 +1863,24 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Are in one, right, you have it!</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5 - Revoicing</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>I do?</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1880,24 +1888,24 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>I do?</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Ok, say it again.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1909,12 +1917,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ok, say it again.</t>
+          <t>Read the second line</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1930,24 +1938,24 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Read the second line</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>How many twelfths are in a whole?</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1955,24 +1963,24 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>How many twelfths are in a whole?</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Are in one?</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8 - Press for Accuracy</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1984,17 +1992,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Are in one?</t>
+          <t>Aren't you calling this one?</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2009,12 +2017,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aren't you calling this one?</t>
+          <t>[Danielle nods] Ok, wait, maybe I'm wrong,  what did you say?</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2030,24 +2038,24 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[Danielle nods] Ok, wait, maybe I'm wrong,  what did you say?</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>How many twelfths are in one?</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2055,24 +2063,24 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>How many twelfths are in one?</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>Do you agree with her?</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3 - Getting Students to Relate</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2084,17 +2092,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Do you agree with her?</t>
+          <t>That's  what you said.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2105,21 +2113,21 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>That's  what you said.</t>
+          <t>I think we're ready to talk about this one,  ok?</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2134,17 +2142,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>I think we're ready to talk about this one,  ok?</t>
+          <t>I've heard some very nice thinking on  this.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2159,12 +2167,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>I've heard some very nice thinking on  this.</t>
+          <t>All we're doing is substituting in  number names for these color names at this  point.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2184,12 +2192,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>All we're doing is substituting in  number names for these color names at this  point.</t>
+          <t>Now that I've defined what an orange  and a red is, I've said that it was 1.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2209,12 +2217,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Now that I've defined what an orange  and a red is, I've said that it was 1.</t>
+          <t>Right, I'm  calling orange and red train 1.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2234,17 +2242,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Right, I'm  calling orange and red train 1.</t>
+          <t>Can  somebody tell me what number names I can  put in here to make the same sentence?</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2259,17 +2267,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Can  somebody tell me what number names I can  put in here to make the same sentence?</t>
+          <t>It's  just putting in number names now.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2284,12 +2292,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>It's  just putting in number names now.</t>
+          <t>I've  heard some people tell me this already.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2309,17 +2317,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>I've  heard some people tell me this already.</t>
+          <t>Who feels confident that they could tell me  what we're going to call these and how  we're going to say this sentence?</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2334,17 +2342,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Who feels confident that they could tell me  what we're going to call these and how  we're going to say this sentence?</t>
+          <t>Ok, let's  see, I haven't had a chance to… David.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2353,55 +2361,55 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>05:52:00</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ok, let's  see, I haven't had a chance to… David.</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>The white would be 1/12 and the red and  orange train would be 1 whole.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>05:52:00</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The white would be 1/12 and the red and  orange train would be 1 whole.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>Ok.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2413,12 +2421,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>So I could say maybe 1/12's or  something like that.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2438,17 +2446,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>So I could say maybe 1/12's or  something like that.</t>
+          <t>How many 1/12's are  in one [whole (David adds)].</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2463,17 +2471,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>How many 1/12's are  in one [whole (David adds)].</t>
+          <t>I'm just going  to call it the number 1.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2488,17 +2496,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I'm just going  to call it the number 1.</t>
+          <t>Alright so we could  rewrite this as this right?</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2513,17 +2521,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Alright so we could  rewrite this as this right?</t>
+          <t>[T: fills in the  blanks in the second question so that it says,  “How many 1/12's are in 1?”] We could  rewrite it with numbers.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2538,17 +2546,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[T/R2: fills in the  blanks in the second question so that it says,  “How many 1/12's are in 1?”] We could  rewrite it with numbers.</t>
+          <t>Can anybody  answer that question now?</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2563,17 +2571,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Can anybody  answer that question now?</t>
+          <t>A couple people  already did when they were talking about it  they answered it for me, but I'd like you to  think about that for a minute.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2588,17 +2596,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A couple people  already did when they were talking about it  they answered it for me, but I'd like you to  think about that for a minute.</t>
+          <t>You can talk  to your partner again if you'd like.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2613,17 +2621,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>You can talk  to your partner again if you'd like.</t>
+          <t>They  question is how many 1/12's are in 1?</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>8 - Press for Accuracy</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2638,17 +2646,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>They  question is how many 1/12's are in 1?</t>
+          <t>No tricks  here.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8 - Press for Accuracy</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2663,12 +2671,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>No tricks  here.</t>
+          <t>There really are no tricks here.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2688,12 +2696,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>There really are no tricks here.</t>
+          <t>This is  something I want you all to be clear on  though before we move on.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2713,12 +2721,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>This is  something I want you all to be clear on  though before we move on.</t>
+          <t>Ok?</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -2738,12 +2746,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ok?</t>
+          <t>I know that  you know this.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -2763,12 +2771,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>I know that  you know this.</t>
+          <t>Ok, let's see, I don't see any  hands over here ladies.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2788,17 +2796,17 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ok, let's see, I don't see any  hands over here ladies.</t>
+          <t>Do you think you  could answer this question?</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -2813,17 +2821,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Do you think you  could answer this question?</t>
+          <t>Think about it  ok.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2838,17 +2846,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Think about it  ok.</t>
+          <t>If you have an idea, raise your hand.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -2863,17 +2871,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>If you have an idea, raise your hand.</t>
+          <t>Ok.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -2883,22 +2891,20 @@
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>27</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t xml:space="preserve"> Let me hear from Graham.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -2907,57 +2913,59 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>07:23:00</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>28</v>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Let me hear from Graham.</t>
+          <t>There is 12 twelfths.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t>7 - Context</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>07:23:00</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>There is 12 twelfths.</t>
+          <t>Ok.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>7 - Context</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2969,17 +2977,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>So then you're telling me that how many  1/12's are in 1 is 12.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>5 - Revoicing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -2990,24 +2998,24 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>So then you're telling me that how many  1/12's are in 1 is 12.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>5 - Revoicing</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
+          <t>Yeah.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3015,41 +3023,39 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Yeah.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Ok.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>31</v>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>Alright, so Graham's answered the  question by saying that there are 12 of them  there.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3064,20 +3070,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>31</v>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Alright, so Graham's answered the  question by saying that there are 12 of them  there.</t>
+          <t>Do you agree with that?</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3092,12 +3100,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Do you agree with that?</t>
+          <t>If you agree  with that, raise you hand.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3117,17 +3125,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>If you agree  with that, raise you hand.</t>
+          <t>Ok, that's great.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3142,17 +3150,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ok, that's great.</t>
+          <t>Now Erik, did you have something that you  wanted to add?</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3163,24 +3171,28 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Now Erik, did you have something that you  wanted to add?</t>
+          <t>For that equation, well, you could put how  many 1/12's there are in 1, you can also put  how many 1/12's are there in 12/12's.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>7 - Context</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>4 - Making a Claim</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3188,28 +3200,24 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>For that equation, well, you could put how  many 1/12's there are in 1, you can also put  how many 1/12's are there in 12/12's.</t>
+          <t>Oh ok.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>7 - Context</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>4 - Making a Claim</t>
-        </is>
-      </c>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3221,17 +3229,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oh ok.</t>
+          <t>So I could also rewrite this you're  saying then as 12 over 12.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>5 - Revoicing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3242,24 +3250,24 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>So I could also rewrite this you're  saying then as 12 over 12.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>5 - Revoicing</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
+          <t>Yeah.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3267,24 +3275,24 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Yeah.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>Is that the same thing 1 and 12 over 12?</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2 - Keeping Everyone Together</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3296,12 +3304,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Is that the same thing 1 and 12 over 12?</t>
+          <t>Are  they the same thing?</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3317,24 +3325,28 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Erik</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Are  they the same thing?</t>
+          <t>Yes.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
+          <t>7 - Context</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3342,28 +3354,24 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Ok, Erik says that 1 and 12 over 12  represent the same number or the same  amount.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>7 - Context</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
+          <t>5 - Revoicing</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3375,17 +3383,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ok, Erik says that 1 and 12 over 12  represent the same number or the same  amount.</t>
+          <t>What do you think about that?</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>5 - Revoicing</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3400,12 +3408,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>What do you think about that?</t>
+          <t>Do  you agree with that?</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3425,17 +3433,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Do  you agree with that?</t>
+          <t>Are they equal to each  other?</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3450,12 +3458,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Are they equal to each  other?</t>
+          <t>If you have an idea about that, raise  your hand.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3471,24 +3479,24 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>If you have an idea about that, raise  your hand.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2 - Keeping Everyone Together</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
+          <t>What did he say about 1/12?</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>3 - Asking for More Information</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3496,24 +3504,24 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>What did he say about 1/12?</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>3 - Asking for More Information</t>
-        </is>
-      </c>
+          <t>He said that the number 1 and 12 over 12 or  12/12's, he said those are really the same  thing.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1 - None</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3525,17 +3533,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>He said that the number 1 and 12 over 12 or  12/12's, he said those are really the same  thing.</t>
+          <t>Do you agree with that?</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3550,17 +3558,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Do you agree with that?</t>
+          <t>Jackie says  yes that she agrees with that.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3575,17 +3583,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jackie says  yes that she agrees with that.</t>
+          <t>David, do you  agree with that?</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1 - None</t>
+          <t>3 - Getting Students to Relate</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -3600,12 +3608,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>David, do you  agree with that?</t>
+          <t>Mark, do you agree with  that?</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3625,17 +3633,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Mark, do you agree with  that?</t>
+          <t>Laura?</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>3 - Getting Students to Relate</t>
+          <t>2 - Keeping Everyone Together</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -3650,17 +3658,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Laura?</t>
+          <t>Ok.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2 - Keeping Everyone Together</t>
+          <t>1 - None</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -3670,17 +3678,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
-        <v>39</v>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ok.</t>
+          <t>We have some agreement  here.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3695,15 +3701,17 @@
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>39</v>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>We have some agreement  here.</t>
+          <t>Ok, that's very interesting.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3723,12 +3731,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>T/R2</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ok, that's very interesting.</t>
+          <t>Thank you Erik for adding that.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -3737,31 +3745,6 @@
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
-        <v>39</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>T/R2</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Thank you Erik for adding that.</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>1 - None</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
